--- a/Parte-2/Progetto2/Progetto2.xlsx
+++ b/Parte-2/Progetto2/Progetto2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrizio\Source\Repositories\Industrial Automation\Parte-2\Progetto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63615E0-635C-4F2D-BE0A-7D65AB04C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B32F93-7E20-4C6D-BB31-D88A1F48386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9FCE67-7CC1-4B67-8253-7C0D067CCC69}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A2:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="D34">
-        <f>MIN(C14,C24)</f>
+        <f t="shared" ref="D34:D43" si="6">MIN(C14,C24)</f>
         <v>6</v>
       </c>
       <c r="E34">
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <f>MIN(C15,C25)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="E35">
@@ -1582,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <f>MIN(C16,C26)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="E36">
@@ -1606,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="D37">
-        <f>MIN(C17,C27)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="E37">
@@ -1630,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <f>MIN(C18,C28)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E38">
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="D39">
-        <f>MIN(C19,C29)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="E39">
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="D40">
-        <f>MIN(C20,C30)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E40">
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="D41">
-        <f>MIN(C21,C31)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="E41">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="D42">
-        <f>MIN(C22,C32)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E42">
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D43">
-        <f>MIN(C23,C33)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E43">
@@ -2009,6 +2009,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F3E9F6E86B7C604A98B057BB5A096283" ma:contentTypeVersion="7" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3bd0ee0cb85a476539f295669726d96c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7949844e-fa96-4cd0-a00f-b5d87aa5cd71" xmlns:ns4="d01a723d-c8fc-4203-85fd-0d3215b6b83f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5dd88e7db9a44af8aadcae5c841286e" ns3:_="" ns4:_="">
     <xsd:import namespace="7949844e-fa96-4cd0-a00f-b5d87aa5cd71"/>
@@ -2193,22 +2208,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E96991-F714-4D31-BC91-E34A590990F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d01a723d-c8fc-4203-85fd-0d3215b6b83f"/>
+    <ds:schemaRef ds:uri="7949844e-fa96-4cd0-a00f-b5d87aa5cd71"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B426FE3-CC80-4E41-98E7-774DFF49C2E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC494DC-91FD-4FCE-B787-9EB59DD36EFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2225,29 +2250,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B426FE3-CC80-4E41-98E7-774DFF49C2E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E96991-F714-4D31-BC91-E34A590990F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d01a723d-c8fc-4203-85fd-0d3215b6b83f"/>
-    <ds:schemaRef ds:uri="7949844e-fa96-4cd0-a00f-b5d87aa5cd71"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>